--- a/data/hotels_by_city/Denver/Denver_shard_18.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33668-d10131719-Reviews-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Candlewood-Suites-Denver-North-Thornton.h13340807.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,474 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r530895974-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>10131719</t>
+  </si>
+  <si>
+    <t>530895974</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Different experience</t>
+  </si>
+  <si>
+    <t>This was our first stay in a Candlewood Suites.  It is in an area with a lot of construction and new housing developments and shopping centers.  There is ample shopping and dining in the area, though the grocery store is a bit of a drive (a couple miles) if you are staying long enough to want to supply your suite with food. My feelings about this property/chain are mixed.  The room was nice enough, very clean, bed was comfortable.  Kitchenette was amply supplied and complimentary microwave popcorn greeted us on our arrival.  The desk is spacious for working on projects and there is a comfortable chair for relaxing.  There is an extensive "library" of appliances, office supplies and games available for checkout.  There is an outside BBQ area with two tables under a gazebo.  The downside to this space is that it also has a smoking station, so everytime I went out there to relax or read, someone showed up to smoke.  This was disgusting really.  Smoking should be discouraged or not allowed in this space.  There is a small "market" room that has complimentary apples, oranges and bananas as well as coffee.  There is a selection of snacks as well as prepared food that can be heated/cooked in your kitchen.  Prices are about 2 to 3 times store prices.  Payment is by cash on the honor system, or can be charged to your room. No complimentary breakfast is offered...This was our first stay in a Candlewood Suites.  It is in an area with a lot of construction and new housing developments and shopping centers.  There is ample shopping and dining in the area, though the grocery store is a bit of a drive (a couple miles) if you are staying long enough to want to supply your suite with food. My feelings about this property/chain are mixed.  The room was nice enough, very clean, bed was comfortable.  Kitchenette was amply supplied and complimentary microwave popcorn greeted us on our arrival.  The desk is spacious for working on projects and there is a comfortable chair for relaxing.  There is an extensive "library" of appliances, office supplies and games available for checkout.  There is an outside BBQ area with two tables under a gazebo.  The downside to this space is that it also has a smoking station, so everytime I went out there to relax or read, someone showed up to smoke.  This was disgusting really.  Smoking should be discouraged or not allowed in this space.  There is a small "market" room that has complimentary apples, oranges and bananas as well as coffee.  There is a selection of snacks as well as prepared food that can be heated/cooked in your kitchen.  Prices are about 2 to 3 times store prices.  Payment is by cash on the honor system, or can be charged to your room. No complimentary breakfast is offered at this hotel.  Complimentary washers and dryers are available.  Now for the oddities - I have not stayed at very many extended stay hotels, so maybe it is typical that housekeeping is only offered once a week?  Dirty towels and sheets can be exchanged for clean ones at the front desk.  Apparently you set your garbage out for pick up in the hall. The shower has just a small step in, but the shower curtain doesn't quite reach to the edge of the step, so it's a challenge to shower without the entire bathroom floor getting wet. The establishment has a pretty casual vibe and most of the front desk personnel tend to be millennials who could all use some customer service training. Noise wasn't a problem for us as it was for some reviewers.  All in all, this worked out ok for us and I would be open to staying here again, but I would be inclined to search other options in the area if I were to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Denver North - Thornton, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>This was our first stay in a Candlewood Suites.  It is in an area with a lot of construction and new housing developments and shopping centers.  There is ample shopping and dining in the area, though the grocery store is a bit of a drive (a couple miles) if you are staying long enough to want to supply your suite with food. My feelings about this property/chain are mixed.  The room was nice enough, very clean, bed was comfortable.  Kitchenette was amply supplied and complimentary microwave popcorn greeted us on our arrival.  The desk is spacious for working on projects and there is a comfortable chair for relaxing.  There is an extensive "library" of appliances, office supplies and games available for checkout.  There is an outside BBQ area with two tables under a gazebo.  The downside to this space is that it also has a smoking station, so everytime I went out there to relax or read, someone showed up to smoke.  This was disgusting really.  Smoking should be discouraged or not allowed in this space.  There is a small "market" room that has complimentary apples, oranges and bananas as well as coffee.  There is a selection of snacks as well as prepared food that can be heated/cooked in your kitchen.  Prices are about 2 to 3 times store prices.  Payment is by cash on the honor system, or can be charged to your room. No complimentary breakfast is offered...This was our first stay in a Candlewood Suites.  It is in an area with a lot of construction and new housing developments and shopping centers.  There is ample shopping and dining in the area, though the grocery store is a bit of a drive (a couple miles) if you are staying long enough to want to supply your suite with food. My feelings about this property/chain are mixed.  The room was nice enough, very clean, bed was comfortable.  Kitchenette was amply supplied and complimentary microwave popcorn greeted us on our arrival.  The desk is spacious for working on projects and there is a comfortable chair for relaxing.  There is an extensive "library" of appliances, office supplies and games available for checkout.  There is an outside BBQ area with two tables under a gazebo.  The downside to this space is that it also has a smoking station, so everytime I went out there to relax or read, someone showed up to smoke.  This was disgusting really.  Smoking should be discouraged or not allowed in this space.  There is a small "market" room that has complimentary apples, oranges and bananas as well as coffee.  There is a selection of snacks as well as prepared food that can be heated/cooked in your kitchen.  Prices are about 2 to 3 times store prices.  Payment is by cash on the honor system, or can be charged to your room. No complimentary breakfast is offered at this hotel.  Complimentary washers and dryers are available.  Now for the oddities - I have not stayed at very many extended stay hotels, so maybe it is typical that housekeeping is only offered once a week?  Dirty towels and sheets can be exchanged for clean ones at the front desk.  Apparently you set your garbage out for pick up in the hall. The shower has just a small step in, but the shower curtain doesn't quite reach to the edge of the step, so it's a challenge to shower without the entire bathroom floor getting wet. The establishment has a pretty casual vibe and most of the front desk personnel tend to be millennials who could all use some customer service training. Noise wasn't a problem for us as it was for some reviewers.  All in all, this worked out ok for us and I would be open to staying here again, but I would be inclined to search other options in the area if I were to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r517712581-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>517712581</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Didn't have the room we booked</t>
+  </si>
+  <si>
+    <t>Booked and paid for a 1 bedroom suite which was not available when we checked in.  Person behind desk had no explanation other than this hotel overbooks.  Promised call from Manager never happened and never got price credit for smaller room.  Id' call before you arrive to make sure they actually have the room you book.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Booked and paid for a 1 bedroom suite which was not available when we checked in.  Person behind desk had no explanation other than this hotel overbooks.  Promised call from Manager never happened and never got price credit for smaller room.  Id' call before you arrive to make sure they actually have the room you book.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r515683617-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>515683617</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Sleep well</t>
+  </si>
+  <si>
+    <t>First time at Candlewood but very familiar with Holiday Inn's. Rooms are really nice most have a little kitchenette with full refrigerator, microwave, and a two top stove (pots and pan included). Lobby very welcoming.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>First time at Candlewood but very familiar with Holiday Inn's. Rooms are really nice most have a little kitchenette with full refrigerator, microwave, and a two top stove (pots and pan included). Lobby very welcoming.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r468366829-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>468366829</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Best Candlewood I've ever stayed at</t>
+  </si>
+  <si>
+    <t>When you accumulate over half a million IHG points you know you're a full time traveler when you run into an employee like Miss cherie or mr. Blake that not only go above and beyond the scope of their job description but make you feel eager to get back to the hotel you know you have a winner. We travel more than 75 percent of the year and I haven't ever found such a gem. Between Sheri Blake the great clean rooms, and impeccable beds I can honestly say this is our new home away from home. You have real winners here.  It's not often you find employees at these establishments that live their jobs but Cherie and Blake love their clients and it showsMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2017</t>
+  </si>
+  <si>
+    <t>When you accumulate over half a million IHG points you know you're a full time traveler when you run into an employee like Miss cherie or mr. Blake that not only go above and beyond the scope of their job description but make you feel eager to get back to the hotel you know you have a winner. We travel more than 75 percent of the year and I haven't ever found such a gem. Between Sheri Blake the great clean rooms, and impeccable beds I can honestly say this is our new home away from home. You have real winners here.  It's not often you find employees at these establishments that live their jobs but Cherie and Blake love their clients and it showsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r437604903-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>437604903</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>New, Clean rooms</t>
+  </si>
+  <si>
+    <t>the rooms are very large, very clean, with a full kitchen. has a nice large bathroom.  pretty darn new motel. really comfortable beds.  the staff are very friendly and efficient.  We have stayed there twice now and next time in the area will stay there again.  really cant think of one thing to complain about..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>the rooms are very large, very clean, with a full kitchen. has a nice large bathroom.  pretty darn new motel. really comfortable beds.  the staff are very friendly and efficient.  We have stayed there twice now and next time in the area will stay there again.  really cant think of one thing to complain about..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r420946954-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>420946954</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Sweet suite</t>
+  </si>
+  <si>
+    <t>We checked into the Candlewood Suites in Thornton for a reunion.  The hotel front desk staff were more than gracious and helpful, answering all our questions, providing directions, explaining the hotel layout and amenities.  Our room was clean and the bed was very comfortable.  As an extended stay hotel - there is no daily housekeeping however, it was simple to exchange towels as often as you wished.  The small but well stocked cupboard offered reasonably priced items.  A free laundry room was available.  Whitney the General Manager was so helpful and accommodating...Our group all complimented the staff and hotel...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2016</t>
+  </si>
+  <si>
+    <t>We checked into the Candlewood Suites in Thornton for a reunion.  The hotel front desk staff were more than gracious and helpful, answering all our questions, providing directions, explaining the hotel layout and amenities.  Our room was clean and the bed was very comfortable.  As an extended stay hotel - there is no daily housekeeping however, it was simple to exchange towels as often as you wished.  The small but well stocked cupboard offered reasonably priced items.  A free laundry room was available.  Whitney the General Manager was so helpful and accommodating...Our group all complimented the staff and hotel...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r414692141-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>414692141</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Brand New!</t>
+  </si>
+  <si>
+    <t>Geared for the extended stay. I wish all hotel rooms were this big and nice. Great price too for the area. Friendly front desk staff. I look forward to staying here again soon and wish I could have stayed longer!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Geared for the extended stay. I wish all hotel rooms were this big and nice. Great price too for the area. Friendly front desk staff. I look forward to staying here again soon and wish I could have stayed longer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r404723550-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>404723550</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Brand new</t>
+  </si>
+  <si>
+    <t>The hotel had its grand opening August 12, 2016. Everything was brand new, and the hotel has modern decor and was spotlessly clean. Our stay was wonderful, and the rooms have everything you could possibly need including refrigerator, oven (and a pot), microwave, and desk. We would definitely stay here again. My one request would be to please turn off/down the dinging noise that the elevator makes, because it woke us up multiple times every night. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>The hotel had its grand opening August 12, 2016. Everything was brand new, and the hotel has modern decor and was spotlessly clean. Our stay was wonderful, and the rooms have everything you could possibly need including refrigerator, oven (and a pot), microwave, and desk. We would definitely stay here again. My one request would be to please turn off/down the dinging noise that the elevator makes, because it woke us up multiple times every night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r398629539-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>398629539</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love This Hotel! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent room, excellent staff! I love Candlewood. They are always excellent. This one is particularly exceptional. Clean, quiet, and very hospitable. Room 323 appreciates your no smoking policy, but there's a faint hint of smoke in this room. Could be pot. After all, it's Colorado! </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r396452743-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>396452743</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Spacious and welcoming</t>
+  </si>
+  <si>
+    <t>I stayed here because the location and price was great, but I never expected such a nice large room with the feel of an apartment! Of course a suite can mean a lot of things in the hotel world, so to have a separate room for the bedroom and a kitchen area that was fully loaded to cook and clean if I needed to was top notch. The staff was friendly and helpful. They have a pantry if you need snacks or things to cook. Cabella's is next door and fun to walk through for sure!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here because the location and price was great, but I never expected such a nice large room with the feel of an apartment! Of course a suite can mean a lot of things in the hotel world, so to have a separate room for the bedroom and a kitchen area that was fully loaded to cook and clean if I needed to was top notch. The staff was friendly and helpful. They have a pantry if you need snacks or things to cook. Cabella's is next door and fun to walk through for sure!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r395936659-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>395936659</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Best Local Staff there is.</t>
+  </si>
+  <si>
+    <t>The rooms are great they feel like small apartment homes. The Washer and dryers are free. The staff is fantastic, Kylie and Blake go out of there way to make you feel welcome. Manager Whitney is amazing and kind. The housekeepers are well trainednice and do a very good job. Great price as well. Candlewood Suites in Thornton is the best. Perfectly located as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are great they feel like small apartment homes. The Washer and dryers are free. The staff is fantastic, Kylie and Blake go out of there way to make you feel welcome. Manager Whitney is amazing and kind. The housekeepers are well trainednice and do a very good job. Great price as well. Candlewood Suites in Thornton is the best. Perfectly located as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r393738119-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>393738119</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>BRAND NEW AND OUTSTANDING SERVICE!</t>
+  </si>
+  <si>
+    <t>Do Not pass up an opportunity to stay at this clean, new and fully equipped room with kitchenette. Bed was Amazing. Customer service by Kylie was White Glove Quality. Free-Wi Fi, free laundry, small store for things you may have forgotten.  This place has it ALL! I would highly recommend. Close to shopping and dining!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Do Not pass up an opportunity to stay at this clean, new and fully equipped room with kitchenette. Bed was Amazing. Customer service by Kylie was White Glove Quality. Free-Wi Fi, free laundry, small store for things you may have forgotten.  This place has it ALL! I would highly recommend. Close to shopping and dining!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r390461206-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>390461206</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Not a great first impression....</t>
+  </si>
+  <si>
+    <t>We arrived late, having booked online, reserving two beds. Arrived and was assigned and sent to the first room with only one. Went back down to the young lady at the front desk and was told "It isn't my fault, Expedia lies." During the booking was made to believe that breakfast was included and it isn't, to which I was again told the same thing at the front desk. Room was nice, but dusty. Too bad since the building looks very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>We arrived late, having booked online, reserving two beds. Arrived and was assigned and sent to the first room with only one. Went back down to the young lady at the front desk and was told "It isn't my fault, Expedia lies." During the booking was made to believe that breakfast was included and it isn't, to which I was again told the same thing at the front desk. Room was nice, but dusty. Too bad since the building looks very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r387790729-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>387790729</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Number 11</t>
+  </si>
+  <si>
+    <t>This hotel is the next generation of Candlewood Suites! We're lucky we booked in advanced because there more and more cars by the day. Our check in experience was OK, the gal at the front desk didn't go through the registration form as standard. Plus never mentioned the great stores around the hotel either. It was disappointing when we weren't help out with the lending lockers. My wife was wanting to rent out the keurig coffee machine but when my wife asked the gal at the front desk, the gal played dumb and ignored my wife. And as for the gentleman that transferred from Arkansas, thank you for accommodating my request. You sir know your customer service!!!! Housekeeping staff, you did a wonderful job cleaning the rooming I'm staying in. But be sure to double check everything before y'all leave the room.Being part of a new hotel is exciting, y'all have the opportunity to make an good expression on your customers!!!! Never put each other down, instead suggest a different approach on handling/building relationships with customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is the next generation of Candlewood Suites! We're lucky we booked in advanced because there more and more cars by the day. Our check in experience was OK, the gal at the front desk didn't go through the registration form as standard. Plus never mentioned the great stores around the hotel either. It was disappointing when we weren't help out with the lending lockers. My wife was wanting to rent out the keurig coffee machine but when my wife asked the gal at the front desk, the gal played dumb and ignored my wife. And as for the gentleman that transferred from Arkansas, thank you for accommodating my request. You sir know your customer service!!!! Housekeeping staff, you did a wonderful job cleaning the rooming I'm staying in. But be sure to double check everything before y'all leave the room.Being part of a new hotel is exciting, y'all have the opportunity to make an good expression on your customers!!!! Never put each other down, instead suggest a different approach on handling/building relationships with customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380995211-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380995211</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>First stay here</t>
+  </si>
+  <si>
+    <t>I have been waiting for this location to open. Location is very convenient and hotel is fresh and new. Everything about this stay was first rate. From check-in to checkout the service was outstanding. I will stay here often.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been waiting for this location to open. Location is very convenient and hotel is fresh and new. Everything about this stay was first rate. From check-in to checkout the service was outstanding. I will stay here often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380372736-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380372736</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Awesome place to hold meetings</t>
+  </si>
+  <si>
+    <t>The staff is top notch to go along with the meeting room! State of the art meeting room to hold your business function/meeting at. The staff have been nothing short of amazing to work with and will go above and beyond what was asked,MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is top notch to go along with the meeting room! State of the art meeting room to hold your business function/meeting at. The staff have been nothing short of amazing to work with and will go above and beyond what was asked,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380368106-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380368106</t>
+  </si>
+  <si>
+    <t>Business Meeting Room</t>
+  </si>
+  <si>
+    <t>Recently we began utilizing one of the conference rooms for our weekly meetings. Our meeting rooms have always been available on time, clean, and well prepared. I certainly appreciate their courteous staff and inviting enviroment.  I would certainly recommend this location for anyone in need of conference room meeting space.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Recently we began utilizing one of the conference rooms for our weekly meetings. Our meeting rooms have always been available on time, clean, and well prepared. I certainly appreciate their courteous staff and inviting enviroment.  I would certainly recommend this location for anyone in need of conference room meeting space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380364225-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380364225</t>
+  </si>
+  <si>
+    <t>Clean, Tidy and New</t>
+  </si>
+  <si>
+    <t>Really liked the location and ease of getting to the hotel. It has a very private feeling when you walk in and all staff have been very friendly! We utilized the meeting room and it has all the tech needs for a professional presentation. The room was set up each time with plenty of water, coffee, note pads and pens.MoreShow less</t>
+  </si>
+  <si>
+    <t>Really liked the location and ease of getting to the hotel. It has a very private feeling when you walk in and all staff have been very friendly! We utilized the meeting room and it has all the tech needs for a professional presentation. The room was set up each time with plenty of water, coffee, note pads and pens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r379637773-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>379637773</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Business Consultant</t>
+  </si>
+  <si>
+    <t>It is wonderful to have our business meetings in such a beautiful meeting room. The conference room is equiped with wonderful technology. The staff have been warm and wonderful for our group. A great choice to stay for any business professional. We meet weekly. MoreShow less</t>
+  </si>
+  <si>
+    <t>It is wonderful to have our business meetings in such a beautiful meeting room. The conference room is equiped with wonderful technology. The staff have been warm and wonderful for our group. A great choice to stay for any business professional. We meet weekly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r379479502-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>379479502</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>SUPER CLEAN</t>
+  </si>
+  <si>
+    <t>The front desk was very nice! we had a problem with there not being enough towels in the room and a front desk person katelyn (I thing) came and brought us towels. We enjoyed that there was free wifi and a front desk person help me set it up on my phoneMoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk was very nice! we had a problem with there not being enough towels in the room and a front desk person katelyn (I thing) came and brought us towels. We enjoyed that there was free wifi and a front desk person help me set it up on my phoneMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1006,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1038,1351 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_18.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_18.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r579264050-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>10131719</t>
+  </si>
+  <si>
+    <t>579264050</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Sad Travel Made Brighter</t>
+  </si>
+  <si>
+    <t>Having had a friend pass away I drove over for his funeral. I decided to treat myself to a nice room. I just wanted a quiet comfortable room where I could reflect my thoughts and that's exactly what I got. It was clean, very clean. The bed was better than home! The staff was kind and thoughtful. At check out the manager, I assume it was, made a point to come out and convey her sympathy for my loss. I have stayed at Candlewood Suites in the past and always impressed!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Meghan S, Manager at Candlewood Suites Denver North - Thornton, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Having had a friend pass away I drove over for his funeral. I decided to treat myself to a nice room. I just wanted a quiet comfortable room where I could reflect my thoughts and that's exactly what I got. It was clean, very clean. The bed was better than home! The staff was kind and thoughtful. At check out the manager, I assume it was, made a point to come out and convey her sympathy for my loss. I have stayed at Candlewood Suites in the past and always impressed!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r550972837-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>550972837</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>We stayed there over Christmas. The staff were very helpful and courteous. The room had a full kitchen with refrigerator, stove, microwave, toaster, cooking utensils, and dinner ware. There were items for sale downstairs to cook if the person staying did not have groceries. We felt warm and safe at this location and plan to stay there on our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Meghan S, Front Office Manager at Candlewood Suites Denver North - Thornton, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there over Christmas. The staff were very helpful and courteous. The room had a full kitchen with refrigerator, stove, microwave, toaster, cooking utensils, and dinner ware. There were items for sale downstairs to cook if the person staying did not have groceries. We felt warm and safe at this location and plan to stay there on our next visit.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r530895974-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
-    <t>33668</t>
-  </si>
-  <si>
-    <t>10131719</t>
-  </si>
-  <si>
     <t>530895974</t>
   </si>
   <si>
@@ -234,6 +294,60 @@
     <t>First time at Candlewood but very familiar with Holiday Inn's. Rooms are really nice most have a little kitchenette with full refrigerator, microwave, and a two top stove (pots and pan included). Lobby very welcoming.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r499769736-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>499769736</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Did not sleep a wink</t>
+  </si>
+  <si>
+    <t>We won't stay at this hotel again. You can hear EVERYTHING (people walking on the floor above you, dogs barking), making it nearly impossible to sleep.I agree with previous reviewer's comment regarding shower... it is a walk in shower with just a curtain...floor was soaking wet each time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Denver North - Thornton, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>We won't stay at this hotel again. You can hear EVERYTHING (people walking on the floor above you, dogs barking), making it nearly impossible to sleep.I agree with previous reviewer's comment regarding shower... it is a walk in shower with just a curtain...floor was soaking wet each time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r489064821-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>489064821</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial Day Weekend </t>
+  </si>
+  <si>
+    <t>So starting with the positives... it is a very new hotel. And the rooms show that. It's very clean and no stains and everything appears very new. They supplied a nice crib for my child and they had lots of TV channels. Also, Cheri at the front desk was fabulous during our check in and check out! She would be about the only reason we'd stay here again. She was prompt and courteous and made us feel like family Ok so why the 3 rating? The beds are hard and I mean really hard. Also, you can hear everything below and above you making it difficult to sleep. The shower is oddly shaped and we ended up always with puddles all over the floor. We probably won't be staying here again mostly bc I didn't sleep at all while I was there and if I'm visiting my in laws, I need my sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Denver North - Thornton, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>So starting with the positives... it is a very new hotel. And the rooms show that. It's very clean and no stains and everything appears very new. They supplied a nice crib for my child and they had lots of TV channels. Also, Cheri at the front desk was fabulous during our check in and check out! She would be about the only reason we'd stay here again. She was prompt and courteous and made us feel like family Ok so why the 3 rating? The beds are hard and I mean really hard. Also, you can hear everything below and above you making it difficult to sleep. The shower is oddly shaped and we ended up always with puddles all over the floor. We probably won't be staying here again mostly bc I didn't sleep at all while I was there and if I'm visiting my in laws, I need my sleep. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r468366829-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -279,9 +393,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Management response:Responded November 17, 2016</t>
   </si>
   <si>
@@ -309,9 +420,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Management response:Responded September 24, 2016</t>
   </si>
   <si>
@@ -321,6 +429,62 @@
     <t>We checked into the Candlewood Suites in Thornton for a reunion.  The hotel front desk staff were more than gracious and helpful, answering all our questions, providing directions, explaining the hotel layout and amenities.  Our room was clean and the bed was very comfortable.  As an extended stay hotel - there is no daily housekeeping however, it was simple to exchange towels as often as you wished.  The small but well stocked cupboard offered reasonably priced items.  A free laundry room was available.  Whitney the General Manager was so helpful and accommodating...Our group all complimented the staff and hotel...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r420584996-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>420584996</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>Stayed for one night in September 2016 on our way north.  The hotel is very nice and very clean.  I believe it is a new hotel, and the plaza still seems to be expanding. There are a few other shopping plazas close by with stores and restaurants.  It is also very convenient to route 25. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for one night in September 2016 on our way north.  The hotel is very nice and very clean.  I believe it is a new hotel, and the plaza still seems to be expanding. There are a few other shopping plazas close by with stores and restaurants.  It is also very convenient to route 25. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r415726330-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>415726330</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Weekend in CO</t>
+  </si>
+  <si>
+    <t>I shall start off by saying the room was very clean, in order, and very functional.  
+BUT, my reservation was not met.  I had booked a 1 bedroom suite for Labor Day weekend.  Upon check in, after traveling 10 hours, we were given our room and wanted to sleep.  The room we were given was a double queen.  We went back and I told them that I had booked the 1 bedroom suite.  I was told they could put us in a regular king bedroom, but no 1 bedroom suites were available until the night before we were to check out (4 day stay).  The compensation?  Some extra points on our rewards account (but not enough for a free night at any of the participating hotels) and reducing the nightly rate, which isn't really any compensation since I had paid for a 1 bedroom suite and the regular king bedroom is less expensive.
+So don't expect this hotel to honor your reservation.
+In each room, they have kitchenette, stocked.  And in the lobby area, they also have other kitchen appliances available.  We didn't use any of those items, so I'm not sure if they is a cost associated with using them.
+They did have fresh cookies at the desk daily, and a comfortable lobby.  If you are traveling for longer periods of time, the free laundry area (3 washers and 4 dryers) is a big plus.  They also have a...I shall start off by saying the room was very clean, in order, and very functional.  BUT, my reservation was not met.  I had booked a 1 bedroom suite for Labor Day weekend.  Upon check in, after traveling 10 hours, we were given our room and wanted to sleep.  The room we were given was a double queen.  We went back and I told them that I had booked the 1 bedroom suite.  I was told they could put us in a regular king bedroom, but no 1 bedroom suites were available until the night before we were to check out (4 day stay).  The compensation?  Some extra points on our rewards account (but not enough for a free night at any of the participating hotels) and reducing the nightly rate, which isn't really any compensation since I had paid for a 1 bedroom suite and the regular king bedroom is less expensive.So don't expect this hotel to honor your reservation.In each room, they have kitchenette, stocked.  And in the lobby area, they also have other kitchen appliances available.  We didn't use any of those items, so I'm not sure if they is a cost associated with using them.They did have fresh cookies at the desk daily, and a comfortable lobby.  If you are traveling for longer periods of time, the free laundry area (3 washers and 4 dryers) is a big plus.  They also have a small store stocked with items you may need, including a reasonable price for the laundry detergent.If not for the room fiasco, this place would have earned the highest marks from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>I shall start off by saying the room was very clean, in order, and very functional.  
+BUT, my reservation was not met.  I had booked a 1 bedroom suite for Labor Day weekend.  Upon check in, after traveling 10 hours, we were given our room and wanted to sleep.  The room we were given was a double queen.  We went back and I told them that I had booked the 1 bedroom suite.  I was told they could put us in a regular king bedroom, but no 1 bedroom suites were available until the night before we were to check out (4 day stay).  The compensation?  Some extra points on our rewards account (but not enough for a free night at any of the participating hotels) and reducing the nightly rate, which isn't really any compensation since I had paid for a 1 bedroom suite and the regular king bedroom is less expensive.
+So don't expect this hotel to honor your reservation.
+In each room, they have kitchenette, stocked.  And in the lobby area, they also have other kitchen appliances available.  We didn't use any of those items, so I'm not sure if they is a cost associated with using them.
+They did have fresh cookies at the desk daily, and a comfortable lobby.  If you are traveling for longer periods of time, the free laundry area (3 washers and 4 dryers) is a big plus.  They also have a...I shall start off by saying the room was very clean, in order, and very functional.  BUT, my reservation was not met.  I had booked a 1 bedroom suite for Labor Day weekend.  Upon check in, after traveling 10 hours, we were given our room and wanted to sleep.  The room we were given was a double queen.  We went back and I told them that I had booked the 1 bedroom suite.  I was told they could put us in a regular king bedroom, but no 1 bedroom suites were available until the night before we were to check out (4 day stay).  The compensation?  Some extra points on our rewards account (but not enough for a free night at any of the participating hotels) and reducing the nightly rate, which isn't really any compensation since I had paid for a 1 bedroom suite and the regular king bedroom is less expensive.So don't expect this hotel to honor your reservation.In each room, they have kitchenette, stocked.  And in the lobby area, they also have other kitchen appliances available.  We didn't use any of those items, so I'm not sure if they is a cost associated with using them.They did have fresh cookies at the desk daily, and a comfortable lobby.  If you are traveling for longer periods of time, the free laundry area (3 washers and 4 dryers) is a big plus.  They also have a small store stocked with items you may need, including a reasonable price for the laundry detergent.If not for the room fiasco, this place would have earned the highest marks from me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r414692141-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -390,6 +554,54 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r397992848-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>397992848</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Newly finished</t>
+  </si>
+  <si>
+    <t>Stayed here after a very long day of flying. The rooms were large with a full kitchen. Beds were firm but comfortable. Ice was made in the full size fridge which was noisy in the middle of the night. No breakfast but places close by to choose from. Definitely a great place to stay if you are in the area for a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here after a very long day of flying. The rooms were large with a full kitchen. Beds were firm but comfortable. Ice was made in the full size fridge which was noisy in the middle of the night. No breakfast but places close by to choose from. Definitely a great place to stay if you are in the area for a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r396630032-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>396630032</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is new and modern.  The beds were very comfortable as were the pillows.  The staff were friendly and helpful.  They explained that this is an extended stay facility and that housekeeping service was once a week but we could get clean towels and linens daily by exchanging the dirty ones for clean ones at the desk.  The hotel has free washers, dryers, and Internet.  They do not have complimentary breakfasts but there are several nearby restaurants.  Location is good with proximity to I 25 and a large shopping mall.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is new and modern.  The beds were very comfortable as were the pillows.  The staff were friendly and helpful.  They explained that this is an extended stay facility and that housekeeping service was once a week but we could get clean towels and linens daily by exchanging the dirty ones for clean ones at the desk.  The hotel has free washers, dryers, and Internet.  They do not have complimentary breakfasts but there are several nearby restaurants.  Location is good with proximity to I 25 and a large shopping mall.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r396452743-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -405,12 +617,6 @@
     <t>I stayed here because the location and price was great, but I never expected such a nice large room with the feel of an apartment! Of course a suite can mean a lot of things in the hotel world, so to have a separate room for the bedroom and a kitchen area that was fully loaded to cook and clean if I needed to was top notch. The staff was friendly and helpful. They have a pantry if you need snacks or things to cook. Cabella's is next door and fun to walk through for sure!  MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded July 26, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 26, 2016</t>
-  </si>
-  <si>
     <t>I stayed here because the location and price was great, but I never expected such a nice large room with the feel of an apartment! Of course a suite can mean a lot of things in the hotel world, so to have a separate room for the bedroom and a kitchen area that was fully loaded to cook and clean if I needed to was top notch. The staff was friendly and helpful. They have a pantry if you need snacks or things to cook. Cabella's is next door and fun to walk through for sure!  More</t>
   </si>
   <si>
@@ -459,6 +665,54 @@
     <t>Do Not pass up an opportunity to stay at this clean, new and fully equipped room with kitchenette. Bed was Amazing. Customer service by Kylie was White Glove Quality. Free-Wi Fi, free laundry, small store for things you may have forgotten.  This place has it ALL! I would highly recommend. Close to shopping and dining!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r392354740-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>392354740</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Best night's sleep in a hotel bed EVER!</t>
+  </si>
+  <si>
+    <t>I travel frequently and have come to like staying at Candlewood Suites across the country. Knowing that each hotel will provide you with the same basics is a welcome relief. The rooms are spacious, always clean and provide a very comfortable home-like environment. This particular Candlewood Suites surpassed the comfort, cleanliness and relaxation of all others I've stayed at. My check in was terrific as well. I would like to personally thank Amber for making sure to welcome me warmly upon my arrival. She was extremely professional, kind and courteous. The King size bed in my suite was bigger (most suites at Candlewood's offer a Queen size bed) and more comfortable than even my bed at home! The hotel is large and was at capacity but it was very quiet and once in my room I never heard another guest at all. It is a pet friendly hotel. I don't have a pet but made a new friend with a beautiful golden retriever on the elevator ride up. There is a very nice, safe and well lit convenience store directly in front of the hotel and only about 75 steps away. The parking lot is very clean as well as being well lit. There's an outdoor fire pit and lounging area right in front of the hotel for guests. I look forward very much to returning to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2016</t>
+  </si>
+  <si>
+    <t>I travel frequently and have come to like staying at Candlewood Suites across the country. Knowing that each hotel will provide you with the same basics is a welcome relief. The rooms are spacious, always clean and provide a very comfortable home-like environment. This particular Candlewood Suites surpassed the comfort, cleanliness and relaxation of all others I've stayed at. My check in was terrific as well. I would like to personally thank Amber for making sure to welcome me warmly upon my arrival. She was extremely professional, kind and courteous. The King size bed in my suite was bigger (most suites at Candlewood's offer a Queen size bed) and more comfortable than even my bed at home! The hotel is large and was at capacity but it was very quiet and once in my room I never heard another guest at all. It is a pet friendly hotel. I don't have a pet but made a new friend with a beautiful golden retriever on the elevator ride up. There is a very nice, safe and well lit convenience store directly in front of the hotel and only about 75 steps away. The parking lot is very clean as well as being well lit. There's an outdoor fire pit and lounging area right in front of the hotel for guests. I look forward very much to returning to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r391572009-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>391572009</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>I would like to thank Jaime for helping us plan our vacation to Colorado, we had never been there before and she went out of her way to help us find activities that were fun for the whole family. I would then like to thank Blake for suggesting several cool restaurants once we were in Colorado and he help guide us around (better then our GPS in the rental car). Last but not least, we would really like to thank Amber, she was amazing she always welcomed us back to the hotel and made sure we were ok with our stay, she also was extremely informative on so many things about Colorado and how Colorado works. She even took the time to educate us on the different animals that we would find threw out Colorado and the seasons in which they come out the most. Most of all I would like to thank her for being so nice and not making fun of us for our lack of knowledge on the sate and because we're such city people (thank you Amber) Thank you Candlewood Suites we had an amazing time and give you 5 stars, especially for being so family friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>I would like to thank Jaime for helping us plan our vacation to Colorado, we had never been there before and she went out of her way to help us find activities that were fun for the whole family. I would then like to thank Blake for suggesting several cool restaurants once we were in Colorado and he help guide us around (better then our GPS in the rental car). Last but not least, we would really like to thank Amber, she was amazing she always welcomed us back to the hotel and made sure we were ok with our stay, she also was extremely informative on so many things about Colorado and how Colorado works. She even took the time to educate us on the different animals that we would find threw out Colorado and the seasons in which they come out the most. Most of all I would like to thank her for being so nice and not making fun of us for our lack of knowledge on the sate and because we're such city people (thank you Amber) Thank you Candlewood Suites we had an amazing time and give you 5 stars, especially for being so family friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r390461206-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -474,12 +728,6 @@
     <t>We arrived late, having booked online, reserving two beds. Arrived and was assigned and sent to the first room with only one. Went back down to the young lady at the front desk and was told "It isn't my fault, Expedia lies." During the booking was made to believe that breakfast was included and it isn't, to which I was again told the same thing at the front desk. Room was nice, but dusty. Too bad since the building looks very nice.MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded July 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 12, 2016</t>
-  </si>
-  <si>
     <t>We arrived late, having booked online, reserving two beds. Arrived and was assigned and sent to the first room with only one. Went back down to the young lady at the front desk and was told "It isn't my fault, Expedia lies." During the booking was made to believe that breakfast was included and it isn't, to which I was again told the same thing at the front desk. Room was nice, but dusty. Too bad since the building looks very nice.More</t>
   </si>
   <si>
@@ -528,15 +776,51 @@
     <t>I have been waiting for this location to open. Location is very convenient and hotel is fresh and new. Everything about this stay was first rate. From check-in to checkout the service was outstanding. I will stay here often.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380717414-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380717414</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>The candlewood suites is a great hotel to stay at, all of the staff are very friendly and they help you with what ever you may need help with. I love the rooms they are very spacious. The room I was in has a full refrigerator, microwave and a stove top, The beds are very comfortable. The location of the hotel is at a great spot there are plenty of restaurants and shopping around the area, you are about 20 min from downtown Denver. If I ever had to stay out here again I would definitely stay here. Del BonnerMoreShow less</t>
+  </si>
+  <si>
+    <t>The candlewood suites is a great hotel to stay at, all of the staff are very friendly and they help you with what ever you may need help with. I love the rooms they are very spacious. The room I was in has a full refrigerator, microwave and a stove top, The beds are very comfortable. The location of the hotel is at a great spot there are plenty of restaurants and shopping around the area, you are about 20 min from downtown Denver. If I ever had to stay out here again I would definitely stay here. Del BonnerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380379436-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380379436</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Business meeting</t>
+  </si>
+  <si>
+    <t>This is a great location for meetings.  It was clean (brand new) and the staff was very responsive.  The room is large enough for many people but intimate enough so you don't have to "yell".  Being new and in north Denver it is the perfect place for our weekly meeting. Thank you Candlewood Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is a great location for meetings.  It was clean (brand new) and the staff was very responsive.  The room is large enough for many people but intimate enough so you don't have to "yell".  Being new and in north Denver it is the perfect place for our weekly meeting. Thank you Candlewood Suites.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380372736-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
     <t>380372736</t>
   </si>
   <si>
-    <t>06/06/2016</t>
-  </si>
-  <si>
     <t>Awesome place to hold meetings</t>
   </si>
   <si>
@@ -558,9 +842,6 @@
     <t>Recently we began utilizing one of the conference rooms for our weekly meetings. Our meeting rooms have always been available on time, clean, and well prepared. I certainly appreciate their courteous staff and inviting enviroment.  I would certainly recommend this location for anyone in need of conference room meeting space.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Recently we began utilizing one of the conference rooms for our weekly meetings. Our meeting rooms have always been available on time, clean, and well prepared. I certainly appreciate their courteous staff and inviting enviroment.  I would certainly recommend this location for anyone in need of conference room meeting space.More</t>
   </si>
   <si>
@@ -579,13 +860,43 @@
     <t>Really liked the location and ease of getting to the hotel. It has a very private feeling when you walk in and all staff have been very friendly! We utilized the meeting room and it has all the tech needs for a professional presentation. The room was set up each time with plenty of water, coffee, note pads and pens.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r380324111-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380324111</t>
+  </si>
+  <si>
+    <t>Business Meetings</t>
+  </si>
+  <si>
+    <t>The accessibility of this hotel is ideal as it is right off the highway, making it the perfect location for any business meeting. The conference room has state of the art technology and a full service kitchen.  The staff is very friendly and accommodating, I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The accessibility of this hotel is ideal as it is right off the highway, making it the perfect location for any business meeting. The conference room has state of the art technology and a full service kitchen.  The staff is very friendly and accommodating, I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r379662190-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>379662190</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Great facilities for business meetings</t>
+  </si>
+  <si>
+    <t>The hotel is new but it's in great shape and the facilities are top notch. They've got the amenities you'd expect coupled with great customer service. The place is modern and the location is ideally located close to restaurant and shopping. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is new but it's in great shape and the facilities are top notch. They've got the amenities you'd expect coupled with great customer service. The place is modern and the location is ideally located close to restaurant and shopping. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d10131719-r379637773-Candlewood_Suites_Denver_North_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
     <t>379637773</t>
-  </si>
-  <si>
-    <t>06/04/2016</t>
   </si>
   <si>
     <t>Business Consultant</t>
@@ -1147,7 +1458,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1155,18 +1466,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1214,27 +1519,35 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1250,7 +1563,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1259,43 +1572,49 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1311,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1320,47 +1639,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1376,7 +1687,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1385,49 +1696,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1443,7 +1748,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1452,36 +1757,32 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1529,37 +1830,31 @@
         <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1575,7 +1870,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1584,43 +1879,47 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1636,7 +1935,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1645,39 +1944,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -1693,7 +2002,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1702,43 +2011,47 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -1754,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1763,49 +2076,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>133</v>
       </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -1821,7 +2132,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1830,47 +2141,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -1886,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1895,43 +2202,49 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1947,7 +2260,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1956,25 +2269,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1986,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -2008,7 +2321,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2017,47 +2330,39 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>161</v>
-      </c>
-      <c r="X16" t="s">
-        <v>162</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -2073,7 +2378,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2082,49 +2387,43 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -2140,7 +2439,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2149,47 +2448,43 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -2205,7 +2500,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2214,47 +2509,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="X19" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
@@ -2270,7 +2561,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2279,43 +2570,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2331,7 +2628,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2340,31 +2637,29 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
@@ -2376,13 +2671,911 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>241</v>
+      </c>
+      <c r="X29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>241</v>
+      </c>
+      <c r="X32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>241</v>
+      </c>
+      <c r="X34" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64831</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>241</v>
+      </c>
+      <c r="X35" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
